--- a/Documentation/Experiment Results.xlsx
+++ b/Documentation/Experiment Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\David\Documents\Work\University\Year 4\Honours\Honours-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80EB326-4616-4C9F-B5BC-7E1374640D0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CC41F-BC61-41A2-817C-690D6838560F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{C7F0B173-7606-40FF-A663-42595F1E1281}"/>
   </bookViews>
@@ -172,34 +172,35 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>53.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.34</c:v>
+                  <c:v>63.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>83.34</c:v>
@@ -211,7 +212,7 @@
                   <c:v>83.34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>83.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -223,11 +224,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-196A-4A5B-850E-47793EAAF19A}"/>
@@ -242,11 +247,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="630413232"/>
         <c:axId val="630411264"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="630413232"/>
         <c:scaling>
@@ -592,29 +596,30 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -631,7 +636,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -643,11 +648,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7138-4A6A-B9B2-B390E49491A8}"/>
@@ -662,11 +671,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="504556944"/>
         <c:axId val="504557272"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="504556944"/>
         <c:scaling>
@@ -1012,8 +1020,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1022,28 +1031,26 @@
             <c:v>Periodic</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>53.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.34</c:v>
+                  <c:v>63.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>83.34</c:v>
@@ -1055,7 +1062,7 @@
                   <c:v>83.34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>83.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1067,12 +1074,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C89C-419E-8FDF-AFBCBB790E99}"/>
@@ -1086,23 +1095,21 @@
             <c:v>Non-periodic</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1119,7 +1126,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1131,12 +1138,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C89C-419E-8FDF-AFBCBB790E99}"/>
@@ -1151,10 +1160,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="494198048"/>
         <c:axId val="494196408"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="494198048"/>
         <c:scaling>
@@ -1551,27 +1560,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>642.83000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>493.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>444.48</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>29.82</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>12.89</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1583,6 +1592,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1875,6 +1887,1320 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Percentage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of all sentences correctly identified</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>76.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5446-4726-B3F0-0D56E387D323}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="251528632"/>
+        <c:axId val="251535192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="251528632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251535192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="251535192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251528632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Premonition search depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Periodic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>53.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5016-455D-8317-E185B9FAB43D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Non-perioidc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5016-455D-8317-E185B9FAB43D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="666114792"/>
+        <c:axId val="666115448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="666114792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666115448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="666115448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666114792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Subordinating conjunctive search depth vs accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>76.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.694999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C6D-42D8-A1EE-EC9EC6384309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="504363288"/>
+        <c:axId val="504366896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="504363288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504366896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504366896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Overell</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> accuracy (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504363288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2035,6 +3361,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3558,6 +5004,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4085,7 +7079,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4114,14 +7108,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4151,13 +7145,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4193,7 +7187,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4214,6 +7208,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C73385-909D-48F5-BC35-34F8F3FC70DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414C60A6-5AE1-47D9-8C39-A9BA67906C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3692</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46B8F3C-5204-4C42-BF86-49D583DA5DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4519,10 +7621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF49AB30-77D7-4961-9F78-8186E42E6165}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4573,17 +7675,17 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>83.34</v>
+        <v>63.34</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">AVERAGE(B3:C3)</f>
-        <v>91.67</v>
+        <f>AVERAGE(B3:C3)</f>
+        <v>81.67</v>
       </c>
       <c r="E3">
-        <v>444.48</v>
+        <v>493.22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4597,11 +7699,11 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D8" si="0">AVERAGE(B4:C4)</f>
         <v>91.67</v>
       </c>
       <c r="E4">
-        <v>29.82</v>
+        <v>444.48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4619,7 +7721,7 @@
         <v>91.67</v>
       </c>
       <c r="E5">
-        <v>12.89</v>
+        <v>29.82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4637,7 +7739,7 @@
         <v>91.67</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,17 +7747,17 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>83.34</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4687,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D9:D12" si="1">AVERAGE(B9:C9)</f>
         <v>0</v>
       </c>
       <c r="E9">
@@ -4705,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10">
@@ -4723,11 +7825,155 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>53.34</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D18" si="2">AVERAGE(B15:C15)</f>
+        <v>76.67</v>
+      </c>
+      <c r="E15">
+        <v>642.83000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>63.34</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>81.67</v>
+      </c>
+      <c r="E16">
+        <v>493.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>73.34</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>86.67</v>
+      </c>
+      <c r="E17">
+        <v>469.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>83.34</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>91.67</v>
+      </c>
+      <c r="E18">
+        <v>444.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>83.34</v>
+      </c>
+      <c r="C19">
+        <v>87.8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19" si="3">AVERAGE(B19:C19)</f>
+        <v>85.57</v>
+      </c>
+      <c r="E19">
+        <v>393.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>83.34</v>
+      </c>
+      <c r="C20">
+        <v>78.05</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D22" si="4">AVERAGE(B20:C20)</f>
+        <v>80.694999999999993</v>
+      </c>
+      <c r="E20">
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>83.34</v>
+      </c>
+      <c r="C21">
+        <v>53.66</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>68.5</v>
+      </c>
+      <c r="E21">
+        <v>257.22000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Experiment Results.xlsx
+++ b/Documentation/Experiment Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\David\Documents\Work\University\Year 4\Honours\Honours-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73CC41F-BC61-41A2-817C-690D6838560F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F64ED6-233E-495E-8701-5D1C403A21CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{C7F0B173-7606-40FF-A663-42595F1E1281}"/>
   </bookViews>
@@ -192,10 +192,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>53.34</c:v>
                 </c:pt>
@@ -215,19 +215,10 @@
                   <c:v>83.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>96.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,10 +607,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -639,19 +630,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>92.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,9 +1009,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Periodic</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1042,10 +1021,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>53.34</c:v>
                 </c:pt>
@@ -1065,19 +1044,10 @@
                   <c:v>83.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>96.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,9 +1061,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Non-periodic</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1106,10 +1073,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1129,19 +1096,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>92.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,10 +1518,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>642.83000000000004</c:v>
                 </c:pt>
@@ -1583,19 +1541,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,10 +1933,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>76.67</c:v>
                 </c:pt>
@@ -2007,19 +1956,10 @@
                   <c:v>91.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>94.675000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,7 +2176,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Premonition search depth</a:t>
+              <a:t>Subordinating conjunctive search depth</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7110,13 +7050,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>328612</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7623,8 +7563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF49AB30-77D7-4961-9F78-8186E42E6165}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7765,17 +7705,17 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7783,71 +7723,17 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>96.67</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>92.68</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D12" si="1">AVERAGE(B9:C9)</f>
-        <v>0</v>
+        <v>94.675000000000011</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7951,7 +7837,7 @@
         <v>78.05</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D22" si="4">AVERAGE(B20:C20)</f>
+        <f t="shared" ref="D20:D21" si="4">AVERAGE(B20:C20)</f>
         <v>80.694999999999993</v>
       </c>
       <c r="E20">

--- a/Documentation/Experiment Results.xlsx
+++ b/Documentation/Experiment Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\David\Documents\Work\University\Year 4\Honours\Honours-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F64ED6-233E-495E-8701-5D1C403A21CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA5AB4C-D46A-4CC1-8C32-DCDE629803CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{C7F0B173-7606-40FF-A663-42595F1E1281}"/>
   </bookViews>
@@ -7563,7 +7563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF49AB30-77D7-4961-9F78-8186E42E6165}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7729,7 +7729,7 @@
         <v>92.68</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D12" si="1">AVERAGE(B9:C9)</f>
+        <f t="shared" ref="D9" si="1">AVERAGE(B9:C9)</f>
         <v>94.675000000000011</v>
       </c>
       <c r="E9">

--- a/Documentation/Experiment Results.xlsx
+++ b/Documentation/Experiment Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\David\Documents\Work\University\Year 4\Honours\Honours-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA5AB4C-D46A-4CC1-8C32-DCDE629803CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8FD30-E965-4546-A5E9-401E7C0222FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{C7F0B173-7606-40FF-A663-42595F1E1281}"/>
+    <workbookView xWindow="15200" yWindow="3490" windowWidth="19200" windowHeight="10510" xr2:uid="{C7F0B173-7606-40FF-A663-42595F1E1281}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,10 +192,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>53.34</c:v>
                 </c:pt>
@@ -218,6 +218,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>96.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>96.67</c:v>
                 </c:pt>
               </c:numCache>
@@ -389,7 +395,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Percentage (%)</a:t>
+                  <a:t>Accuracy (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -607,10 +613,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -633,6 +639,12 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>92.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>92.68</c:v>
                 </c:pt>
               </c:numCache>
@@ -804,7 +816,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Percentage</a:t>
+                  <a:t>Accuracy (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -964,7 +976,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> accuracy for each prototype</a:t>
+              <a:t> accuracy</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1009,6 +1021,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Periodic Accuracy</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1021,10 +1036,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>53.34</c:v>
                 </c:pt>
@@ -1047,6 +1062,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>96.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>96.67</c:v>
                 </c:pt>
               </c:numCache>
@@ -1061,6 +1082,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Non-periodic Accuracy</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1073,10 +1097,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1099,6 +1123,12 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>92.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>92.68</c:v>
                 </c:pt>
               </c:numCache>
@@ -1269,7 +1299,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Percentage accuracy</a:t>
+                  <a:t>Accuracy (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1458,11 +1488,6 @@
               <a:rPr lang="en-GB"/>
               <a:t>Runtime</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> change for each prototype</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1518,10 +1543,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>642.83000000000004</c:v>
                 </c:pt>
@@ -1544,6 +1569,12 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -1715,7 +1746,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Run time in seconds</a:t>
+                  <a:t>Run time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1933,10 +1964,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>76.67</c:v>
                 </c:pt>
@@ -1959,6 +1990,12 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>94.675000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.675000000000011</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>94.675000000000011</c:v>
                 </c:pt>
               </c:numCache>
@@ -1990,6 +2027,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Prototype</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2054,6 +2146,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2176,8 +2323,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Subordinating conjunctive search depth</a:t>
+              <a:t>Subordinate conjunctive search depth vs periodic</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> and non-periodic accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2546,7 +2698,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Percentage accuracy</a:t>
+                  <a:t>Accuracy (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2733,7 +2885,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Subordinating conjunctive search depth vs accuracy</a:t>
+              <a:t>Subordinate conjunctive search depth vs overall accuracy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7193,14 +7345,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83819</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7563,19 +7715,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF49AB30-77D7-4961-9F78-8186E42E6165}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7592,7 +7744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7610,7 +7762,7 @@
         <v>642.83000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7628,7 +7780,7 @@
         <v>493.22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7646,7 +7798,7 @@
         <v>444.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7664,7 +7816,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7682,7 +7834,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7700,7 +7852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7718,7 +7870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7736,7 +7888,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>96.67</v>
+      </c>
+      <c r="C10">
+        <v>92.68</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D11" si="2">AVERAGE(B10:C10)</f>
+        <v>94.675000000000011</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>96.67</v>
+      </c>
+      <c r="C11">
+        <v>92.68</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>94.675000000000011</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -7747,14 +7935,14 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D18" si="2">AVERAGE(B15:C15)</f>
+        <f t="shared" ref="D15:D18" si="3">AVERAGE(B15:C15)</f>
         <v>76.67</v>
       </c>
       <c r="E15">
         <v>642.83000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7765,14 +7953,14 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81.67</v>
       </c>
       <c r="E16">
         <v>493.22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -7783,14 +7971,14 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.67</v>
       </c>
       <c r="E17">
         <v>469.06</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7801,14 +7989,14 @@
         <v>100</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.67</v>
       </c>
       <c r="E18">
         <v>444.48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -7819,14 +8007,14 @@
         <v>87.8</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19" si="3">AVERAGE(B19:C19)</f>
+        <f t="shared" ref="D19" si="4">AVERAGE(B19:C19)</f>
         <v>85.57</v>
       </c>
       <c r="E19">
         <v>393.97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
@@ -7837,14 +8025,14 @@
         <v>78.05</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D21" si="4">AVERAGE(B20:C20)</f>
+        <f t="shared" ref="D20:D21" si="5">AVERAGE(B20:C20)</f>
         <v>80.694999999999993</v>
       </c>
       <c r="E20">
         <v>356.25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -7855,7 +8043,7 @@
         <v>53.66</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="E21">
